--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2189163.014265482</v>
+        <v>2186639.935940857</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328585</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.97937002740719</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1540,13 +1540,13 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128498</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1607,7 +1607,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>228.4035085082467</v>
+        <v>236.8621683961345</v>
       </c>
     </row>
     <row r="15">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>191.7549174328576</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>307.7079050020904</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1904,13 +1904,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>179.2270913718368</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>336.6692916846833</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>247.6326277687279</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>188.9420073839244</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
@@ -2144,7 +2144,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404345</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575749</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2849,7 +2849,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128485</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335016</v>
       </c>
     </row>
     <row r="32">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>331.2862445927524</v>
+        <v>331.2862445927523</v>
       </c>
       <c r="C35" t="n">
-        <v>313.8252947002794</v>
+        <v>313.8252947002793</v>
       </c>
       <c r="D35" t="n">
-        <v>303.2354445499548</v>
+        <v>303.2354445499547</v>
       </c>
       <c r="E35" t="n">
-        <v>330.4827730015336</v>
+        <v>330.4827730015335</v>
       </c>
       <c r="F35" t="n">
         <v>355.4284486709832</v>
       </c>
       <c r="G35" t="n">
-        <v>359.4741285827253</v>
+        <v>359.4741285827252</v>
       </c>
       <c r="H35" t="n">
-        <v>243.1601673165923</v>
+        <v>243.1601673165922</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.74016471744764</v>
+        <v>57.74016471744761</v>
       </c>
       <c r="T35" t="n">
         <v>152.4703730688919</v>
       </c>
       <c r="U35" t="n">
-        <v>199.5475748881738</v>
+        <v>199.5475748881737</v>
       </c>
       <c r="V35" t="n">
         <v>276.3046613994067</v>
@@ -3332,7 +3332,7 @@
         <v>318.2835036077408</v>
       </c>
       <c r="Y35" t="n">
-        <v>334.7903415853254</v>
+        <v>334.7903415853253</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128.3843831112091</v>
+        <v>128.384383111209</v>
       </c>
       <c r="C37" t="n">
         <v>115.7992240278996</v>
       </c>
       <c r="D37" t="n">
-        <v>97.16787594748416</v>
+        <v>97.16787594748411</v>
       </c>
       <c r="E37" t="n">
-        <v>94.98636557584098</v>
+        <v>94.98636557584092</v>
       </c>
       <c r="F37" t="n">
-        <v>93.97345095220305</v>
+        <v>93.973450952203</v>
       </c>
       <c r="G37" t="n">
         <v>114.5782111883</v>
       </c>
       <c r="H37" t="n">
-        <v>93.30741784359259</v>
+        <v>93.30741784359253</v>
       </c>
       <c r="I37" t="n">
-        <v>44.9048233391099</v>
+        <v>44.90482333910986</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.48455559931914</v>
+        <v>37.48455559931909</v>
       </c>
       <c r="S37" t="n">
-        <v>138.3214282607137</v>
+        <v>138.3214282607136</v>
       </c>
       <c r="T37" t="n">
-        <v>168.101352205441</v>
+        <v>168.1013522054409</v>
       </c>
       <c r="U37" t="n">
-        <v>234.7642411348847</v>
+        <v>234.7642411348846</v>
       </c>
       <c r="V37" t="n">
         <v>200.6900462530998</v>
@@ -3487,10 +3487,10 @@
         <v>235.0754012658628</v>
       </c>
       <c r="X37" t="n">
-        <v>174.262058318309</v>
+        <v>174.2620583183089</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.1370562813666</v>
+        <v>167.1370562813665</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>331.2862445927524</v>
+        <v>331.2862445927523</v>
       </c>
       <c r="C38" t="n">
-        <v>313.8252947002794</v>
+        <v>313.8252947002793</v>
       </c>
       <c r="D38" t="n">
-        <v>303.2354445499548</v>
+        <v>303.2354445499547</v>
       </c>
       <c r="E38" t="n">
-        <v>330.4827730015336</v>
+        <v>330.4827730015335</v>
       </c>
       <c r="F38" t="n">
         <v>355.4284486709832</v>
       </c>
       <c r="G38" t="n">
-        <v>359.4741285827253</v>
+        <v>359.4741285827252</v>
       </c>
       <c r="H38" t="n">
-        <v>243.1601673165923</v>
+        <v>243.1601673165922</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.74016471744763</v>
+        <v>57.7401647174476</v>
       </c>
       <c r="T38" t="n">
         <v>152.4703730688919</v>
       </c>
       <c r="U38" t="n">
-        <v>199.5475748881738</v>
+        <v>199.5475748881737</v>
       </c>
       <c r="V38" t="n">
         <v>276.3046613994067</v>
@@ -3569,7 +3569,7 @@
         <v>318.2835036077408</v>
       </c>
       <c r="Y38" t="n">
-        <v>334.7903415853254</v>
+        <v>334.7903415853253</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128.3843831112091</v>
+        <v>128.384383111209</v>
       </c>
       <c r="C40" t="n">
         <v>115.7992240278996</v>
       </c>
       <c r="D40" t="n">
-        <v>97.16787594748416</v>
+        <v>97.16787594748411</v>
       </c>
       <c r="E40" t="n">
-        <v>94.98636557584098</v>
+        <v>94.98636557584092</v>
       </c>
       <c r="F40" t="n">
-        <v>93.97345095220305</v>
+        <v>93.973450952203</v>
       </c>
       <c r="G40" t="n">
         <v>114.5782111883</v>
       </c>
       <c r="H40" t="n">
-        <v>93.30741784359259</v>
+        <v>93.30741784359253</v>
       </c>
       <c r="I40" t="n">
-        <v>44.9048233391099</v>
+        <v>44.90482333910986</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.48455559931914</v>
+        <v>37.48455559931909</v>
       </c>
       <c r="S40" t="n">
-        <v>138.3214282607137</v>
+        <v>138.3214282607136</v>
       </c>
       <c r="T40" t="n">
-        <v>168.101352205441</v>
+        <v>168.1013522054409</v>
       </c>
       <c r="U40" t="n">
-        <v>234.7642411348847</v>
+        <v>234.7642411348846</v>
       </c>
       <c r="V40" t="n">
         <v>200.6900462530998</v>
@@ -3724,10 +3724,10 @@
         <v>235.0754012658628</v>
       </c>
       <c r="X40" t="n">
-        <v>174.262058318309</v>
+        <v>174.2620583183089</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.1370562813666</v>
+        <v>167.1370562813665</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>317.8959339921003</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>245.093458672192</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247679</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>245.0934586721921</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>272.3407871237705</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1707.656676566317</v>
+        <v>1640.517726580262</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.143792573978</v>
+        <v>1640.517726580262</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1329.701660921585</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>991.3630412714142</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>627.82676942988</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>260.2039522229496</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218345</v>
@@ -5039,10 +5039,10 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5054,13 +5054,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609172</v>
@@ -5069,22 +5069,22 @@
         <v>3262.764786084341</v>
       </c>
       <c r="T11" t="n">
-        <v>3262.764786084341</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>3056.683942306251</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2773.070687910753</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.751665588713</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2141.735540275706</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y11" t="n">
-        <v>2046.806883682365</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064541</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158131</v>
@@ -5130,40 +5130,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998336</v>
@@ -5200,7 +5200,7 @@
         <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337115</v>
@@ -5215,7 +5215,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5236,13 +5236,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.959858232656</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>772.4735532892844</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296688</v>
@@ -5300,28 +5300,28 @@
         <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638546</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2898.155827638546</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2592.836805316505</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2266.820680003499</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2036.110065348704</v>
+        <v>1743.952710056348</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052948</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254611</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611987</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268789</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770418</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.155714499834</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657651</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337113</v>
@@ -5470,7 +5470,7 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W16" t="n">
         <v>1247.547945832862</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874612</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1768.338774781835</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="C17" t="n">
         <v>1446.825890789496</v>
@@ -5498,10 +5498,10 @@
         <v>1136.009825130819</v>
       </c>
       <c r="E17" t="n">
-        <v>797.671205480648</v>
+        <v>797.6712054806483</v>
       </c>
       <c r="F17" t="n">
-        <v>434.1349336391137</v>
+        <v>434.134933639114</v>
       </c>
       <c r="G17" t="n">
         <v>66.51211643218343</v>
@@ -5516,25 +5516,25 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M17" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5552,13 +5552,13 @@
         <v>2614.542573243048</v>
       </c>
       <c r="W17" t="n">
-        <v>2614.542573243048</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X17" t="n">
-        <v>2288.526447930041</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y17" t="n">
-        <v>2107.488981897883</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5592,22 +5592,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052944</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770415</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657644</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337114</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5692,31 +5692,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1316.597850733289</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C20" t="n">
-        <v>995.0849667409504</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D20" t="n">
-        <v>684.2689010822733</v>
+        <v>995.0546951262038</v>
       </c>
       <c r="E20" t="n">
-        <v>684.2689010822733</v>
+        <v>656.716075476033</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822733</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G20" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5783,19 +5783,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>2913.38615890762</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2629.772904512123</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2324.453882190082</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>1998.437756877076</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y20" t="n">
-        <v>1655.748057849337</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5820,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5832,13 +5832,13 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992583</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998337</v>
@@ -5908,13 +5908,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8454215455611</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L23" t="n">
-        <v>1388.344880790731</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M23" t="n">
-        <v>1921.876785462656</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N23" t="n">
-        <v>2468.655602521438</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O23" t="n">
-        <v>2971.628073400775</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P23" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q23" t="n">
         <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309627</v>
@@ -6020,19 +6020,19 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456133</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644863</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032351</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977796</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246646</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572835</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951511</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
@@ -6072,46 +6072,46 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875143</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U24" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965681</v>
       </c>
     </row>
     <row r="25">
@@ -6142,19 +6142,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6218,55 +6218,55 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1635.769886219269</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2169.301790891193</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697989</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899652</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257028</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191383</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415474</v>
+        <v>350.043718641546</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6397,10 +6397,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6412,22 +6412,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519652</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6455,55 +6455,55 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.404136464984</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M29" t="n">
-        <v>1986.936041136909</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2533.714858195691</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075028</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6646,25 +6646,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>875.9322461484389</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1326.966459396848</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2305.516762226676</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2004.710968390225</v>
+        <v>2004.710968390226</v>
       </c>
       <c r="C35" t="n">
-        <v>1687.715721218226</v>
+        <v>1687.715721218227</v>
       </c>
       <c r="D35" t="n">
-        <v>1381.417292379888</v>
+        <v>1381.417292379889</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.596309550056</v>
+        <v>1047.596309550057</v>
       </c>
       <c r="F35" t="n">
-        <v>688.5776745288607</v>
+        <v>688.5776745288615</v>
       </c>
       <c r="G35" t="n">
         <v>325.4724941422699</v>
       </c>
       <c r="H35" t="n">
-        <v>79.85616351944942</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="I35" t="n">
-        <v>79.85616351944942</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J35" t="n">
-        <v>268.7352944784749</v>
+        <v>268.7352944784748</v>
       </c>
       <c r="K35" t="n">
-        <v>602.5546681683213</v>
+        <v>602.5546681683212</v>
       </c>
       <c r="L35" t="n">
-        <v>1467.073483821676</v>
+        <v>1053.58888141673</v>
       </c>
       <c r="M35" t="n">
-        <v>2000.6053884936</v>
+        <v>1712.206531521617</v>
       </c>
       <c r="N35" t="n">
-        <v>2547.384205552383</v>
+        <v>2258.985348580399</v>
       </c>
       <c r="O35" t="n">
-        <v>3290.730381302808</v>
+        <v>2761.957819459736</v>
       </c>
       <c r="P35" t="n">
-        <v>3685.504747659987</v>
+        <v>3475.312906906681</v>
       </c>
       <c r="Q35" t="n">
         <v>3933.791109415669</v>
       </c>
       <c r="R35" t="n">
-        <v>3992.808175972471</v>
+        <v>3992.808175972472</v>
       </c>
       <c r="S35" t="n">
-        <v>3934.484777267979</v>
+        <v>3934.48477726798</v>
       </c>
       <c r="T35" t="n">
         <v>3780.474299420614</v>
@@ -6977,10 +6977,10 @@
         <v>2999.014089386002</v>
       </c>
       <c r="X35" t="n">
-        <v>2677.515600893334</v>
+        <v>2677.515600893335</v>
       </c>
       <c r="Y35" t="n">
-        <v>2339.343538685935</v>
+        <v>2339.343538685936</v>
       </c>
     </row>
     <row r="36">
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>954.8879015683746</v>
+        <v>954.8879015683748</v>
       </c>
       <c r="C36" t="n">
-        <v>780.4348722872476</v>
+        <v>780.4348722872478</v>
       </c>
       <c r="D36" t="n">
-        <v>631.5004626259963</v>
+        <v>631.5004626259965</v>
       </c>
       <c r="E36" t="n">
-        <v>472.2630076205409</v>
+        <v>472.263007620541</v>
       </c>
       <c r="F36" t="n">
-        <v>325.7284496474258</v>
+        <v>325.7284496474259</v>
       </c>
       <c r="G36" t="n">
-        <v>189.3653494800439</v>
+        <v>189.365349480044</v>
       </c>
       <c r="H36" t="n">
-        <v>98.86345511791146</v>
+        <v>98.86345511791151</v>
       </c>
       <c r="I36" t="n">
-        <v>79.85616351944942</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J36" t="n">
         <v>173.5334330100667</v>
       </c>
       <c r="K36" t="n">
-        <v>411.7976319904139</v>
+        <v>411.7976319904138</v>
       </c>
       <c r="L36" t="n">
-        <v>778.4957923030793</v>
+        <v>778.495792303079</v>
       </c>
       <c r="M36" t="n">
-        <v>1225.772117525395</v>
+        <v>1225.772117525396</v>
       </c>
       <c r="N36" t="n">
         <v>1699.29516107985</v>
       </c>
       <c r="O36" t="n">
-        <v>2110.256440497904</v>
+        <v>2110.256440497905</v>
       </c>
       <c r="P36" t="n">
-        <v>2420.756031974007</v>
+        <v>2420.756031974008</v>
       </c>
       <c r="Q36" t="n">
-        <v>2578.397589620607</v>
+        <v>2578.397589620608</v>
       </c>
       <c r="R36" t="n">
-        <v>2578.253236213122</v>
+        <v>2578.253236213123</v>
       </c>
       <c r="S36" t="n">
-        <v>2448.815349706602</v>
+        <v>2448.815349706603</v>
       </c>
       <c r="T36" t="n">
         <v>2256.172349384458</v>
       </c>
       <c r="U36" t="n">
-        <v>2028.104502518873</v>
+        <v>2028.104502518874</v>
       </c>
       <c r="V36" t="n">
         <v>1792.952394287131</v>
@@ -7056,7 +7056,7 @@
         <v>1538.715037558929</v>
       </c>
       <c r="X36" t="n">
-        <v>1330.863537353396</v>
+        <v>1330.863537353397</v>
       </c>
       <c r="Y36" t="n">
         <v>1123.103238588443</v>
@@ -7069,67 +7069,67 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.1868391501872</v>
+        <v>741.1868391501869</v>
       </c>
       <c r="C37" t="n">
-        <v>624.2179259906926</v>
+        <v>624.2179259906924</v>
       </c>
       <c r="D37" t="n">
-        <v>526.0685563467692</v>
+        <v>526.068556346769</v>
       </c>
       <c r="E37" t="n">
-        <v>430.1227325327885</v>
+        <v>430.1227325327882</v>
       </c>
       <c r="F37" t="n">
-        <v>335.2000548032904</v>
+        <v>335.2000548032902</v>
       </c>
       <c r="G37" t="n">
-        <v>219.4644879464217</v>
+        <v>219.4644879464216</v>
       </c>
       <c r="H37" t="n">
-        <v>125.2145709326918</v>
+        <v>125.2145709326917</v>
       </c>
       <c r="I37" t="n">
-        <v>79.85616351944942</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J37" t="n">
-        <v>175.9119170664059</v>
+        <v>124.978795966385</v>
       </c>
       <c r="K37" t="n">
-        <v>424.9943874090068</v>
+        <v>379.8991000152823</v>
       </c>
       <c r="L37" t="n">
-        <v>741.5541858575029</v>
+        <v>747.3920195637993</v>
       </c>
       <c r="M37" t="n">
-        <v>1136.644352557073</v>
+        <v>1136.644352557071</v>
       </c>
       <c r="N37" t="n">
-        <v>1528.985850362958</v>
+        <v>1528.985850362957</v>
       </c>
       <c r="O37" t="n">
-        <v>1828.315449283372</v>
+        <v>1879.248570383391</v>
       </c>
       <c r="P37" t="n">
-        <v>2111.856070817052</v>
+        <v>2111.85607081705</v>
       </c>
       <c r="Q37" t="n">
-        <v>2240.399488069588</v>
+        <v>2240.399488069586</v>
       </c>
       <c r="R37" t="n">
-        <v>2202.536300595528</v>
+        <v>2202.536300595526</v>
       </c>
       <c r="S37" t="n">
-        <v>2062.817686190766</v>
+        <v>2062.817686190765</v>
       </c>
       <c r="T37" t="n">
-        <v>1893.018340528705</v>
+        <v>1893.018340528704</v>
       </c>
       <c r="U37" t="n">
-        <v>1655.882743422761</v>
+        <v>1655.88274342276</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.165524985286</v>
+        <v>1453.165524985285</v>
       </c>
       <c r="W37" t="n">
         <v>1215.715624716737</v>
@@ -7138,7 +7138,7 @@
         <v>1039.693343587132</v>
       </c>
       <c r="Y37" t="n">
-        <v>870.8680342120147</v>
+        <v>870.8680342120142</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2004.710968390226</v>
+        <v>2004.710968390225</v>
       </c>
       <c r="C38" t="n">
-        <v>1687.715721218227</v>
+        <v>1687.715721218226</v>
       </c>
       <c r="D38" t="n">
-        <v>1381.417292379889</v>
+        <v>1381.417292379888</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.596309550057</v>
+        <v>1047.596309550056</v>
       </c>
       <c r="F38" t="n">
-        <v>688.5776745288615</v>
+        <v>688.5776745288606</v>
       </c>
       <c r="G38" t="n">
-        <v>325.47249414227</v>
+        <v>325.4724941422699</v>
       </c>
       <c r="H38" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="I38" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J38" t="n">
-        <v>268.7352944784749</v>
+        <v>268.7352944784748</v>
       </c>
       <c r="K38" t="n">
-        <v>602.5546681683213</v>
+        <v>602.5546681683212</v>
       </c>
       <c r="L38" t="n">
-        <v>1053.58888141673</v>
+        <v>1467.073483821676</v>
       </c>
       <c r="M38" t="n">
-        <v>1597.81379744352</v>
+        <v>2000.6053884936</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.566069670167</v>
+        <v>2547.384205552382</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.538540549504</v>
+        <v>3050.356676431719</v>
       </c>
       <c r="P38" t="n">
-        <v>3475.312906906682</v>
+        <v>3685.504747659987</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.79110941567</v>
+        <v>3933.791109415669</v>
       </c>
       <c r="R38" t="n">
         <v>3992.808175972472</v>
       </c>
       <c r="S38" t="n">
-        <v>3934.48477726798</v>
+        <v>3934.484777267979</v>
       </c>
       <c r="T38" t="n">
-        <v>3780.474299420614</v>
+        <v>3780.474299420613</v>
       </c>
       <c r="U38" t="n">
-        <v>3578.911092462863</v>
+        <v>3578.911092462862</v>
       </c>
       <c r="V38" t="n">
-        <v>3299.815474887704</v>
+        <v>3299.815474887703</v>
       </c>
       <c r="W38" t="n">
-        <v>2999.014089386003</v>
+        <v>2999.014089386002</v>
       </c>
       <c r="X38" t="n">
-        <v>2677.515600893335</v>
+        <v>2677.515600893334</v>
       </c>
       <c r="Y38" t="n">
-        <v>2339.343538685936</v>
+        <v>2339.343538685935</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>954.8879015683746</v>
+        <v>954.8879015683748</v>
       </c>
       <c r="C39" t="n">
-        <v>780.4348722872476</v>
+        <v>780.4348722872478</v>
       </c>
       <c r="D39" t="n">
-        <v>631.5004626259963</v>
+        <v>631.5004626259965</v>
       </c>
       <c r="E39" t="n">
-        <v>472.2630076205409</v>
+        <v>472.263007620541</v>
       </c>
       <c r="F39" t="n">
         <v>325.7284496474259</v>
@@ -7245,46 +7245,46 @@
         <v>189.365349480044</v>
       </c>
       <c r="H39" t="n">
-        <v>98.86345511791149</v>
+        <v>98.86345511791151</v>
       </c>
       <c r="I39" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J39" t="n">
-        <v>173.5334330100668</v>
+        <v>173.5334330100676</v>
       </c>
       <c r="K39" t="n">
-        <v>411.7976319904139</v>
+        <v>411.7976319904147</v>
       </c>
       <c r="L39" t="n">
-        <v>778.4957923030793</v>
+        <v>778.49579230308</v>
       </c>
       <c r="M39" t="n">
-        <v>1225.772117525395</v>
+        <v>1225.772117525396</v>
       </c>
       <c r="N39" t="n">
         <v>1699.29516107985</v>
       </c>
       <c r="O39" t="n">
-        <v>2110.256440497904</v>
+        <v>2110.256440497905</v>
       </c>
       <c r="P39" t="n">
-        <v>2420.756031974007</v>
+        <v>2420.756031974008</v>
       </c>
       <c r="Q39" t="n">
-        <v>2578.397589620607</v>
+        <v>2578.397589620608</v>
       </c>
       <c r="R39" t="n">
-        <v>2578.253236213122</v>
+        <v>2578.253236213123</v>
       </c>
       <c r="S39" t="n">
-        <v>2448.815349706602</v>
+        <v>2448.815349706603</v>
       </c>
       <c r="T39" t="n">
         <v>2256.172349384458</v>
       </c>
       <c r="U39" t="n">
-        <v>2028.104502518873</v>
+        <v>2028.104502518874</v>
       </c>
       <c r="V39" t="n">
         <v>1792.952394287131</v>
@@ -7293,7 +7293,7 @@
         <v>1538.715037558929</v>
       </c>
       <c r="X39" t="n">
-        <v>1330.863537353396</v>
+        <v>1330.863537353397</v>
       </c>
       <c r="Y39" t="n">
         <v>1123.103238588443</v>
@@ -7306,67 +7306,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.1868391501872</v>
+        <v>741.1868391501869</v>
       </c>
       <c r="C40" t="n">
-        <v>624.2179259906926</v>
+        <v>624.2179259906924</v>
       </c>
       <c r="D40" t="n">
-        <v>526.0685563467692</v>
+        <v>526.068556346769</v>
       </c>
       <c r="E40" t="n">
-        <v>430.1227325327885</v>
+        <v>430.1227325327882</v>
       </c>
       <c r="F40" t="n">
-        <v>335.2000548032904</v>
+        <v>335.2000548032902</v>
       </c>
       <c r="G40" t="n">
-        <v>219.4644879464217</v>
+        <v>219.4644879464216</v>
       </c>
       <c r="H40" t="n">
-        <v>125.2145709326918</v>
+        <v>125.2145709326917</v>
       </c>
       <c r="I40" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J40" t="n">
-        <v>124.978795966385</v>
+        <v>170.0740833601078</v>
       </c>
       <c r="K40" t="n">
-        <v>379.8991000152823</v>
+        <v>374.0612663089841</v>
       </c>
       <c r="L40" t="n">
-        <v>747.3920195637993</v>
+        <v>741.5541858575011</v>
       </c>
       <c r="M40" t="n">
-        <v>1142.482186263369</v>
+        <v>1136.644352557071</v>
       </c>
       <c r="N40" t="n">
-        <v>1534.823684069255</v>
+        <v>1528.985850362957</v>
       </c>
       <c r="O40" t="n">
-        <v>1885.086404089689</v>
+        <v>1879.248570383391</v>
       </c>
       <c r="P40" t="n">
-        <v>2117.693904523348</v>
+        <v>2162.789191917071</v>
       </c>
       <c r="Q40" t="n">
-        <v>2240.399488069588</v>
+        <v>2240.399488069586</v>
       </c>
       <c r="R40" t="n">
-        <v>2202.536300595528</v>
+        <v>2202.536300595526</v>
       </c>
       <c r="S40" t="n">
-        <v>2062.817686190766</v>
+        <v>2062.817686190765</v>
       </c>
       <c r="T40" t="n">
-        <v>1893.018340528705</v>
+        <v>1893.018340528704</v>
       </c>
       <c r="U40" t="n">
-        <v>1655.882743422761</v>
+        <v>1655.88274342276</v>
       </c>
       <c r="V40" t="n">
-        <v>1453.165524985286</v>
+        <v>1453.165524985285</v>
       </c>
       <c r="W40" t="n">
         <v>1215.715624716737</v>
@@ -7375,7 +7375,7 @@
         <v>1039.693343587132</v>
       </c>
       <c r="Y40" t="n">
-        <v>870.8680342120147</v>
+        <v>870.8680342120142</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2031.410909352346</v>
+        <v>1968.569873827514</v>
       </c>
       <c r="C41" t="n">
-        <v>1710.303905319922</v>
+        <v>1647.056989835176</v>
       </c>
       <c r="D41" t="n">
         <v>1399.487839661244</v>
@@ -7397,64 +7397,64 @@
         <v>1061.149220011073</v>
       </c>
       <c r="F41" t="n">
-        <v>697.612948169539</v>
+        <v>697.6129481695392</v>
       </c>
       <c r="G41" t="n">
         <v>329.9901309626089</v>
       </c>
       <c r="H41" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="I41" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J41" t="n">
-        <v>268.7352944784749</v>
+        <v>268.7352944784748</v>
       </c>
       <c r="K41" t="n">
-        <v>602.5546681683213</v>
+        <v>923.4586266137742</v>
       </c>
       <c r="L41" t="n">
-        <v>1467.073483821676</v>
+        <v>1374.492839862183</v>
       </c>
       <c r="M41" t="n">
-        <v>2000.6053884936</v>
+        <v>1908.024744534107</v>
       </c>
       <c r="N41" t="n">
-        <v>2547.384205552383</v>
+        <v>2787.757910423472</v>
       </c>
       <c r="O41" t="n">
         <v>3290.730381302809</v>
       </c>
       <c r="P41" t="n">
-        <v>3685.504747659988</v>
+        <v>3685.504747659987</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.79110941567</v>
+        <v>3933.791109415669</v>
       </c>
       <c r="R41" t="n">
         <v>3992.808175972472</v>
       </c>
       <c r="S41" t="n">
-        <v>3992.808175972472</v>
+        <v>3929.96714044764</v>
       </c>
       <c r="T41" t="n">
-        <v>3834.280061304768</v>
+        <v>3771.439025779935</v>
       </c>
       <c r="U41" t="n">
-        <v>3628.199217526678</v>
+        <v>3565.358182001846</v>
       </c>
       <c r="V41" t="n">
-        <v>3344.585963131181</v>
+        <v>3281.744927606348</v>
       </c>
       <c r="W41" t="n">
-        <v>3039.26694080914</v>
+        <v>2976.425905284307</v>
       </c>
       <c r="X41" t="n">
-        <v>2713.250815496133</v>
+        <v>2650.409779971301</v>
       </c>
       <c r="Y41" t="n">
-        <v>2370.561116468395</v>
+        <v>2307.720080943563</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>954.8879015683746</v>
+        <v>954.887901568374</v>
       </c>
       <c r="C42" t="n">
-        <v>780.4348722872476</v>
+        <v>780.434872287247</v>
       </c>
       <c r="D42" t="n">
-        <v>631.5004626259963</v>
+        <v>631.5004626259957</v>
       </c>
       <c r="E42" t="n">
-        <v>472.2630076205409</v>
+        <v>472.2630076205402</v>
       </c>
       <c r="F42" t="n">
-        <v>325.7284496474259</v>
+        <v>325.7284496474252</v>
       </c>
       <c r="G42" t="n">
-        <v>189.365349480044</v>
+        <v>189.3653494800433</v>
       </c>
       <c r="H42" t="n">
-        <v>98.86345511791149</v>
+        <v>98.86345511791085</v>
       </c>
       <c r="I42" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J42" t="n">
-        <v>173.5334330100668</v>
+        <v>173.5334330100667</v>
       </c>
       <c r="K42" t="n">
-        <v>411.7976319904139</v>
+        <v>411.7976319904138</v>
       </c>
       <c r="L42" t="n">
-        <v>778.4957923030793</v>
+        <v>778.495792303079</v>
       </c>
       <c r="M42" t="n">
         <v>1225.772117525395</v>
       </c>
       <c r="N42" t="n">
-        <v>1699.29516107985</v>
+        <v>1699.295161079849</v>
       </c>
       <c r="O42" t="n">
         <v>2110.256440497904</v>
@@ -7518,13 +7518,13 @@
         <v>2448.815349706602</v>
       </c>
       <c r="T42" t="n">
-        <v>2256.172349384458</v>
+        <v>2256.172349384457</v>
       </c>
       <c r="U42" t="n">
         <v>2028.104502518873</v>
       </c>
       <c r="V42" t="n">
-        <v>1792.952394287131</v>
+        <v>1792.95239428713</v>
       </c>
       <c r="W42" t="n">
         <v>1538.715037558929</v>
@@ -7533,7 +7533,7 @@
         <v>1330.863537353396</v>
       </c>
       <c r="Y42" t="n">
-        <v>1123.103238588443</v>
+        <v>1123.103238588442</v>
       </c>
     </row>
     <row r="43">
@@ -7558,55 +7558,55 @@
         <v>348.7529652643074</v>
       </c>
       <c r="G43" t="n">
-        <v>228.4997615870997</v>
+        <v>228.4997615870996</v>
       </c>
       <c r="H43" t="n">
-        <v>129.7322077530308</v>
+        <v>129.7322077530307</v>
       </c>
       <c r="I43" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J43" t="n">
-        <v>171.4841812187917</v>
+        <v>171.4841812187916</v>
       </c>
       <c r="K43" t="n">
-        <v>421.9767494200747</v>
+        <v>421.9767494200744</v>
       </c>
       <c r="L43" t="n">
-        <v>785.0419331209764</v>
+        <v>785.0419331209772</v>
       </c>
       <c r="M43" t="n">
-        <v>1175.704363972932</v>
+        <v>1175.704363972933</v>
       </c>
       <c r="N43" t="n">
-        <v>1563.618125931203</v>
+        <v>1563.618125931204</v>
       </c>
       <c r="O43" t="n">
-        <v>1909.453110104023</v>
+        <v>1909.453110104024</v>
       </c>
       <c r="P43" t="n">
-        <v>2188.565995790089</v>
+        <v>2188.56599579009</v>
       </c>
       <c r="Q43" t="n">
-        <v>2312.681677195011</v>
+        <v>2312.681677195012</v>
       </c>
       <c r="R43" t="n">
-        <v>2270.300852900612</v>
+        <v>2270.300852900613</v>
       </c>
       <c r="S43" t="n">
-        <v>2126.064601675512</v>
+        <v>2126.064601675513</v>
       </c>
       <c r="T43" t="n">
-        <v>1951.747619193111</v>
+        <v>1951.747619193112</v>
       </c>
       <c r="U43" t="n">
-        <v>1710.094385266828</v>
+        <v>1710.094385266829</v>
       </c>
       <c r="V43" t="n">
         <v>1502.859530009015</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.891992920127</v>
+        <v>1260.891992920128</v>
       </c>
       <c r="X43" t="n">
         <v>1080.352074970183</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1968.569873827514</v>
+        <v>1968.569873827513</v>
       </c>
       <c r="C44" t="n">
-        <v>1647.056989835176</v>
+        <v>1647.056989835175</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.487839661244</v>
+        <v>1336.240924176498</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.149220011074</v>
+        <v>1061.149220011073</v>
       </c>
       <c r="F44" t="n">
         <v>697.6129481695392</v>
       </c>
       <c r="G44" t="n">
-        <v>329.990130962609</v>
+        <v>329.9901309626089</v>
       </c>
       <c r="H44" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="I44" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J44" t="n">
-        <v>268.7352944784749</v>
+        <v>268.7352944784748</v>
       </c>
       <c r="K44" t="n">
-        <v>602.5546681683213</v>
+        <v>602.5546681683212</v>
       </c>
       <c r="L44" t="n">
         <v>1467.073483821676</v>
@@ -7658,40 +7658,40 @@
         <v>2000.6053884936</v>
       </c>
       <c r="N44" t="n">
-        <v>2547.384205552383</v>
+        <v>2547.384205552382</v>
       </c>
       <c r="O44" t="n">
-        <v>3050.35667643172</v>
+        <v>3290.730381302809</v>
       </c>
       <c r="P44" t="n">
-        <v>3445.131042788898</v>
+        <v>3685.504747659987</v>
       </c>
       <c r="Q44" t="n">
-        <v>3903.609245297886</v>
+        <v>3933.791109415669</v>
       </c>
       <c r="R44" t="n">
-        <v>3992.808175972473</v>
+        <v>3992.808175972472</v>
       </c>
       <c r="S44" t="n">
-        <v>3929.967140447641</v>
+        <v>3929.96714044764</v>
       </c>
       <c r="T44" t="n">
-        <v>3771.439025779936</v>
+        <v>3771.439025779935</v>
       </c>
       <c r="U44" t="n">
-        <v>3565.358182001846</v>
+        <v>3565.358182001845</v>
       </c>
       <c r="V44" t="n">
         <v>3281.744927606348</v>
       </c>
       <c r="W44" t="n">
-        <v>2976.425905284308</v>
+        <v>2976.425905284307</v>
       </c>
       <c r="X44" t="n">
-        <v>2650.409779971301</v>
+        <v>2650.4097799713</v>
       </c>
       <c r="Y44" t="n">
-        <v>2307.720080943563</v>
+        <v>2307.720080943562</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>954.8879015683746</v>
+        <v>954.8879015683748</v>
       </c>
       <c r="C45" t="n">
-        <v>780.4348722872476</v>
+        <v>780.4348722872478</v>
       </c>
       <c r="D45" t="n">
-        <v>631.5004626259963</v>
+        <v>631.5004626259965</v>
       </c>
       <c r="E45" t="n">
-        <v>472.2630076205409</v>
+        <v>472.263007620541</v>
       </c>
       <c r="F45" t="n">
         <v>325.7284496474259</v>
@@ -7719,46 +7719,46 @@
         <v>189.365349480044</v>
       </c>
       <c r="H45" t="n">
-        <v>98.86345511791149</v>
+        <v>98.86345511791151</v>
       </c>
       <c r="I45" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J45" t="n">
-        <v>173.5334330100668</v>
+        <v>173.5334330100667</v>
       </c>
       <c r="K45" t="n">
-        <v>411.7976319904139</v>
+        <v>411.7976319904138</v>
       </c>
       <c r="L45" t="n">
-        <v>778.4957923030793</v>
+        <v>778.495792303079</v>
       </c>
       <c r="M45" t="n">
-        <v>1225.772117525395</v>
+        <v>1225.772117525396</v>
       </c>
       <c r="N45" t="n">
         <v>1699.29516107985</v>
       </c>
       <c r="O45" t="n">
-        <v>2110.256440497904</v>
+        <v>2110.256440497905</v>
       </c>
       <c r="P45" t="n">
-        <v>2420.756031974007</v>
+        <v>2420.756031974008</v>
       </c>
       <c r="Q45" t="n">
-        <v>2578.397589620607</v>
+        <v>2578.397589620608</v>
       </c>
       <c r="R45" t="n">
-        <v>2578.253236213122</v>
+        <v>2578.253236213123</v>
       </c>
       <c r="S45" t="n">
-        <v>2448.815349706602</v>
+        <v>2448.815349706603</v>
       </c>
       <c r="T45" t="n">
         <v>2256.172349384458</v>
       </c>
       <c r="U45" t="n">
-        <v>2028.104502518873</v>
+        <v>2028.104502518874</v>
       </c>
       <c r="V45" t="n">
         <v>1792.952394287131</v>
@@ -7767,7 +7767,7 @@
         <v>1538.715037558929</v>
       </c>
       <c r="X45" t="n">
-        <v>1330.863537353396</v>
+        <v>1330.863537353397</v>
       </c>
       <c r="Y45" t="n">
         <v>1123.103238588443</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.8102968925604</v>
+        <v>772.8102968925609</v>
       </c>
       <c r="C46" t="n">
-        <v>651.3237469127267</v>
+        <v>651.3237469127273</v>
       </c>
       <c r="D46" t="n">
-        <v>548.6567404484643</v>
+        <v>548.6567404484649</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1932798141445</v>
+        <v>448.1932798141452</v>
       </c>
       <c r="F46" t="n">
-        <v>348.7529652643075</v>
+        <v>348.7529652643082</v>
       </c>
       <c r="G46" t="n">
-        <v>228.4997615870997</v>
+        <v>228.4997615871005</v>
       </c>
       <c r="H46" t="n">
         <v>129.7322077530308</v>
       </c>
       <c r="I46" t="n">
-        <v>79.85616351944945</v>
+        <v>79.85616351944944</v>
       </c>
       <c r="J46" t="n">
-        <v>171.4841812187917</v>
+        <v>171.4841812187916</v>
       </c>
       <c r="K46" t="n">
-        <v>421.9767494200747</v>
+        <v>421.9767494200746</v>
       </c>
       <c r="L46" t="n">
-        <v>785.0419331209775</v>
+        <v>785.0419331209773</v>
       </c>
       <c r="M46" t="n">
         <v>1175.704363972933</v>
@@ -7819,10 +7819,10 @@
         <v>1563.618125931204</v>
       </c>
       <c r="O46" t="n">
-        <v>1909.453110104024</v>
+        <v>1909.453110104025</v>
       </c>
       <c r="P46" t="n">
-        <v>2188.56599579009</v>
+        <v>2188.565995790091</v>
       </c>
       <c r="Q46" t="n">
         <v>2312.681677195012</v>
@@ -7849,7 +7849,7 @@
         <v>1080.352074970184</v>
       </c>
       <c r="Y46" t="n">
-        <v>907.0091287747268</v>
+        <v>907.0091287747273</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.0567589217225</v>
+        <v>207.056758921723</v>
       </c>
       <c r="L8" t="n">
-        <v>219.5977117262461</v>
+        <v>219.5977117262466</v>
       </c>
       <c r="M8" t="n">
-        <v>212.3554354930233</v>
+        <v>212.3554354930239</v>
       </c>
       <c r="N8" t="n">
-        <v>211.1311559462014</v>
+        <v>211.131155946202</v>
       </c>
       <c r="O8" t="n">
-        <v>212.8351244412904</v>
+        <v>212.835124441291</v>
       </c>
       <c r="P8" t="n">
-        <v>216.4993504131341</v>
+        <v>216.4993504131346</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.2413358202217</v>
+        <v>211.241335820222</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.658331818983</v>
+        <v>121.6583318189831</v>
       </c>
       <c r="K9" t="n">
-        <v>128.9891991337215</v>
+        <v>128.9891991337218</v>
       </c>
       <c r="L9" t="n">
-        <v>126.6514508798889</v>
+        <v>126.6514508798893</v>
       </c>
       <c r="M9" t="n">
-        <v>128.2438773206215</v>
+        <v>128.2438773206219</v>
       </c>
       <c r="N9" t="n">
-        <v>117.0839243681484</v>
+        <v>117.0839243681489</v>
       </c>
       <c r="O9" t="n">
-        <v>129.5531541699771</v>
+        <v>129.5531541699776</v>
       </c>
       <c r="P9" t="n">
-        <v>123.5061775699194</v>
+        <v>123.5061775699197</v>
       </c>
       <c r="Q9" t="n">
-        <v>132.9840396611115</v>
+        <v>132.9840396611117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.051780475576</v>
+        <v>128.0517804755762</v>
       </c>
       <c r="M10" t="n">
-        <v>131.7214533632199</v>
+        <v>131.7214533632201</v>
       </c>
       <c r="N10" t="n">
-        <v>120.6525167596741</v>
+        <v>120.6525167596743</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9603990372385</v>
+        <v>131.9603990372387</v>
       </c>
       <c r="P10" t="n">
-        <v>132.1694345371914</v>
+        <v>132.1694345371916</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="L23" t="n">
-        <v>336.8335818149104</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>137.5908801368514</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>78.40458911672857</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>306.6874953089259</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>274.8351763665433</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>402.5500016878934</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10589,22 +10589,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>126.3492378110734</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>242.8017220920087</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,22 +10826,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>10.80102157057092</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>242.8017220920104</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>336.3175240712962</v>
       </c>
       <c r="O41" t="n">
-        <v>242.8017220920096</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>242.8017220920107</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>30.48673143210532</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033586942</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>245.2834320100538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>110.8592935292144</v>
+        <v>102.4006336413265</v>
       </c>
     </row>
     <row r="15">
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>144.0037876120304</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23792,13 +23792,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>160.0357106656243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23975,13 +23975,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>23.23161743843553</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>15.07802795638499</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>6.323830348264892e-13</v>
       </c>
     </row>
     <row r="32">
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4018211603146256</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>62.61444632989838</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>62.61444632989829</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>62.61444632989868</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>879956.7544109735</v>
+        <v>879956.7544109738</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755176.8380827942</v>
+        <v>755176.8380827941</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755176.8380827942</v>
+        <v>755176.838082794</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755176.838082794</v>
+        <v>755176.8380827941</v>
       </c>
     </row>
     <row r="9">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.162505705</v>
       </c>
       <c r="D2" t="n">
         <v>634945.4831641215</v>
       </c>
       <c r="E2" t="n">
-        <v>592511.532664628</v>
+        <v>592511.5326646279</v>
       </c>
       <c r="F2" t="n">
         <v>592511.5326646282</v>
       </c>
       <c r="G2" t="n">
-        <v>592511.532664628</v>
+        <v>592511.5326646281</v>
       </c>
       <c r="H2" t="n">
-        <v>592511.5326646279</v>
+        <v>592511.5326646286</v>
       </c>
       <c r="I2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="J2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="K2" t="n">
         <v>636307.3716448196</v>
@@ -26347,10 +26347,10 @@
         <v>636307.3716448188</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448187</v>
       </c>
       <c r="O2" t="n">
-        <v>632444.6864507282</v>
+        <v>632444.6864507283</v>
       </c>
       <c r="P2" t="n">
         <v>632444.6864507282</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21827.01756996089</v>
+        <v>21827.01756996018</v>
       </c>
       <c r="E3" t="n">
         <v>1140872.21228589</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902286</v>
+        <v>48646.25967902272</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>206745.7753460109</v>
+        <v>206745.775346011</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34002.14093316552</v>
+        <v>34002.14093316551</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>424086.4444950373</v>
+        <v>424086.4444950375</v>
       </c>
       <c r="E4" t="n">
-        <v>57605.61344858623</v>
+        <v>57605.61344858621</v>
       </c>
       <c r="F4" t="n">
-        <v>57605.61344858627</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="G4" t="n">
         <v>57605.61344858621</v>
       </c>
       <c r="H4" t="n">
-        <v>57605.61344858623</v>
+        <v>57605.61344858621</v>
       </c>
       <c r="I4" t="n">
+        <v>80755.36360646592</v>
+      </c>
+      <c r="J4" t="n">
         <v>80755.36360646595</v>
       </c>
-      <c r="J4" t="n">
-        <v>80755.36360646589</v>
-      </c>
       <c r="K4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646598</v>
       </c>
       <c r="M4" t="n">
-        <v>81535.84699427648</v>
+        <v>81535.84699427655</v>
       </c>
       <c r="N4" t="n">
-        <v>81535.84699427651</v>
+        <v>81535.84699427655</v>
       </c>
       <c r="O4" t="n">
-        <v>78713.61262591727</v>
+        <v>78713.61262591735</v>
       </c>
       <c r="P4" t="n">
-        <v>78713.61262591727</v>
+        <v>78713.61262591733</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34183.20626405587</v>
+        <v>34183.20626405586</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>88772.96438585452</v>
       </c>
       <c r="N5" t="n">
-        <v>88772.96438585453</v>
+        <v>88772.96438585452</v>
       </c>
       <c r="O5" t="n">
-        <v>88396.96910810393</v>
+        <v>88396.96910810392</v>
       </c>
       <c r="P5" t="n">
-        <v>88396.96910810395</v>
+        <v>88396.96910810392</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170413.0530630288</v>
+        <v>170408.6394851609</v>
       </c>
       <c r="C6" t="n">
-        <v>170413.0530630288</v>
+        <v>170408.6394851611</v>
       </c>
       <c r="D6" t="n">
-        <v>154848.8148350675</v>
+        <v>154844.4216464206</v>
       </c>
       <c r="E6" t="n">
-        <v>-684221.78639163</v>
+        <v>-684363.0632915667</v>
       </c>
       <c r="F6" t="n">
-        <v>456650.4258942602</v>
+        <v>456509.1489943242</v>
       </c>
       <c r="G6" t="n">
-        <v>456650.4258942601</v>
+        <v>456509.1489943241</v>
       </c>
       <c r="H6" t="n">
-        <v>456650.4258942599</v>
+        <v>456509.1489943244</v>
       </c>
       <c r="I6" t="n">
-        <v>417527.8066845243</v>
+        <v>417527.8066845249</v>
       </c>
       <c r="J6" t="n">
         <v>428593.9570686735</v>
@@ -26552,16 +26552,16 @@
         <v>466174.0663635474</v>
       </c>
       <c r="M6" t="n">
-        <v>259252.7849186769</v>
+        <v>259252.7849186767</v>
       </c>
       <c r="N6" t="n">
-        <v>465998.5602646881</v>
+        <v>465998.5602646876</v>
       </c>
       <c r="O6" t="n">
-        <v>431331.9637835414</v>
+        <v>431319.5035087218</v>
       </c>
       <c r="P6" t="n">
-        <v>465334.104716707</v>
+        <v>465321.6444418874</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="N2" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.48652587412267</v>
+        <v>25.48652587412183</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26799,7 +26799,7 @@
         <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26811,25 +26811,25 @@
         <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>998.2020439931179</v>
+        <v>998.202043993118</v>
       </c>
       <c r="N4" t="n">
-        <v>998.2020439931181</v>
+        <v>998.202043993118</v>
       </c>
       <c r="O4" t="n">
-        <v>998.2020439931181</v>
+        <v>998.202043993118</v>
       </c>
       <c r="P4" t="n">
-        <v>998.2020439931182</v>
+        <v>998.202043993118</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.472460452135643</v>
+        <v>4.472460452135678</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.48652587412267</v>
+        <v>25.48652587412183</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.290174719176</v>
+        <v>1064.290174719177</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063217</v>
+        <v>182.9350058063218</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>815.2670381867963</v>
+        <v>815.2670381867966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27871,10 +27871,10 @@
         <v>338.4255000731205</v>
       </c>
       <c r="I8" t="n">
-        <v>206.5258622788999</v>
+        <v>206.5258622789001</v>
       </c>
       <c r="J8" t="n">
-        <v>3.253261111762992</v>
+        <v>3.253261111763278</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.4330657564648</v>
+        <v>143.433065756465</v>
       </c>
       <c r="S8" t="n">
-        <v>206.6852988993847</v>
+        <v>206.6852988993848</v>
       </c>
       <c r="T8" t="n">
         <v>222.6473379379445</v>
@@ -27950,7 +27950,7 @@
         <v>111.7059977273001</v>
       </c>
       <c r="I9" t="n">
-        <v>87.50918730318996</v>
+        <v>87.50918730319002</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.75418075383105</v>
+        <v>96.75418075383116</v>
       </c>
       <c r="S9" t="n">
         <v>170.6649122634896</v>
@@ -28032,10 +28032,10 @@
         <v>154.0683531634616</v>
       </c>
       <c r="J10" t="n">
-        <v>90.10985697367192</v>
+        <v>90.10985697367202</v>
       </c>
       <c r="K10" t="n">
-        <v>16.92985574930437</v>
+        <v>16.92985574930454</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.31357784470187</v>
+        <v>82.313577844702</v>
       </c>
       <c r="R10" t="n">
         <v>175.2268937218677</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="14">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29223,7 +29223,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M25" t="n">
         <v>46.97513661859256</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="C35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="D35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="E35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="F35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="G35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="H35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="T35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="U35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="V35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="W35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="X35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="Y35" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="C37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="D37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="E37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="F37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="G37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="H37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="I37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="J37" t="n">
-        <v>51.4475970707282</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.55079534719653</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="M37" t="n">
-        <v>51.4475970707282</v>
+        <v>45.55079534719493</v>
       </c>
       <c r="N37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="P37" t="n">
-        <v>51.4475970707282</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="R37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="S37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="T37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="U37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="V37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="W37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="X37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="C38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="D38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="E38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="F38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="G38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="H38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="T38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="U38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="V38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="W38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="X38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="Y38" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="C40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="D40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="E40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="F40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="G40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="H40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="I40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.55079534719475</v>
       </c>
       <c r="K40" t="n">
-        <v>51.4475970707282</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="M40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="N40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="O40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.55079534719651</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="S40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="T40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="U40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="V40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="W40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="X40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.4475970707282</v>
+        <v>51.44759707072824</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859148</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
         <v>46.97513661859259</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1024583954738599</v>
+        <v>0.1024583954738565</v>
       </c>
       <c r="H8" t="n">
-        <v>1.049302042646668</v>
+        <v>1.049302042646634</v>
       </c>
       <c r="I8" t="n">
-        <v>3.950027291505988</v>
+        <v>3.950027291505858</v>
       </c>
       <c r="J8" t="n">
-        <v>8.696028242849525</v>
+        <v>8.696028242849239</v>
       </c>
       <c r="K8" t="n">
-        <v>13.03309212325802</v>
+        <v>13.03309212325759</v>
       </c>
       <c r="L8" t="n">
-        <v>16.16870324374116</v>
+        <v>16.16870324374063</v>
       </c>
       <c r="M8" t="n">
-        <v>17.99079773424942</v>
+        <v>17.99079773424882</v>
       </c>
       <c r="N8" t="n">
-        <v>18.28190765038952</v>
+        <v>18.28190765038892</v>
       </c>
       <c r="O8" t="n">
-        <v>17.26308698039633</v>
+        <v>17.26308698039576</v>
       </c>
       <c r="P8" t="n">
-        <v>14.73364534213541</v>
+        <v>14.73364534213492</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.0643540542278</v>
+        <v>11.06435405422743</v>
       </c>
       <c r="R8" t="n">
-        <v>6.436052184684858</v>
+        <v>6.436052184684646</v>
       </c>
       <c r="S8" t="n">
-        <v>2.334770686860585</v>
+        <v>2.334770686860508</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4485116261868219</v>
+        <v>0.4485116261868072</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008196671637908791</v>
+        <v>0.00819667163790852</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05482007452169782</v>
+        <v>0.05482007452169602</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5294465091963975</v>
+        <v>0.52944650919638</v>
       </c>
       <c r="I9" t="n">
-        <v>1.887445548225122</v>
+        <v>1.88744554822506</v>
       </c>
       <c r="J9" t="n">
-        <v>5.179294847683741</v>
+        <v>5.17929484768357</v>
       </c>
       <c r="K9" t="n">
-        <v>8.852239840637495</v>
+        <v>8.852239840637203</v>
       </c>
       <c r="L9" t="n">
-        <v>11.90292889998531</v>
+        <v>11.90292889998492</v>
       </c>
       <c r="M9" t="n">
-        <v>13.89015660139685</v>
+        <v>13.8901566013964</v>
       </c>
       <c r="N9" t="n">
-        <v>14.25778771518491</v>
+        <v>14.25778771518444</v>
       </c>
       <c r="O9" t="n">
-        <v>13.04309027446729</v>
+        <v>13.04309027446686</v>
       </c>
       <c r="P9" t="n">
-        <v>10.46822984441088</v>
+        <v>10.46822984441053</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.997734424910059</v>
+        <v>6.997734424909829</v>
       </c>
       <c r="R9" t="n">
-        <v>3.403653398812082</v>
+        <v>3.40365339881197</v>
       </c>
       <c r="S9" t="n">
-        <v>1.018258840348202</v>
+        <v>1.018258840348169</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2209633705501766</v>
+        <v>0.2209633705501694</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0036065838501117</v>
+        <v>0.003606583850111581</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04595930895333596</v>
+        <v>0.04595930895333444</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4086200377851145</v>
+        <v>0.4086200377851011</v>
       </c>
       <c r="I10" t="n">
-        <v>1.382121763796685</v>
+        <v>1.38212176379664</v>
       </c>
       <c r="J10" t="n">
-        <v>3.249323143000852</v>
+        <v>3.249323143000745</v>
       </c>
       <c r="K10" t="n">
-        <v>5.339636076578485</v>
+        <v>5.33963607657831</v>
       </c>
       <c r="L10" t="n">
-        <v>6.83289580566233</v>
+        <v>6.832895805662106</v>
       </c>
       <c r="M10" t="n">
-        <v>7.204330584385199</v>
+        <v>7.204330584384961</v>
       </c>
       <c r="N10" t="n">
-        <v>7.033027705559133</v>
+        <v>7.033027705558903</v>
       </c>
       <c r="O10" t="n">
-        <v>6.496139414604252</v>
+        <v>6.496139414604039</v>
       </c>
       <c r="P10" t="n">
-        <v>5.558569511956194</v>
+        <v>5.558569511956011</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.848465406992523</v>
+        <v>3.848465406992396</v>
       </c>
       <c r="R10" t="n">
-        <v>2.066497655301815</v>
+        <v>2.066497655301746</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8009454114867727</v>
+        <v>0.8009454114867464</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1963715928006172</v>
+        <v>0.1963715928006108</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002506871397454691</v>
+        <v>0.002506871397454609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233483</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026447</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233483</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882205</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36051,7 +36051,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859626</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165853</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36288,10 +36288,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P22" t="n">
         <v>281.932207763703</v>
@@ -36358,10 +36358,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>461.709877710406</v>
       </c>
       <c r="L23" t="n">
-        <v>792.4236962072425</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36376,7 +36376,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36519,7 +36519,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M25" t="n">
         <v>394.6085160120764</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>689.8927155497629</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36771,7 +36771,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>533.9947035090607</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>845.6086111391525</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>612.0264629219438</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>941.47111751812</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>665.2703536412999</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>750.8547229802278</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.79426790133</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>97.02601368379442</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>251.5984548915161</v>
+        <v>257.4952566150478</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>371.2049692409263</v>
       </c>
       <c r="M37" t="n">
-        <v>399.080976464212</v>
+        <v>393.1841747406787</v>
       </c>
       <c r="N37" t="n">
         <v>396.3045432382683</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>353.800727293368</v>
       </c>
       <c r="P37" t="n">
-        <v>286.4046682158386</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
         <v>129.8418356086219</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>549.7221374007977</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>641.563708311382</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597794</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>91.12921196026095</v>
       </c>
       <c r="K40" t="n">
-        <v>257.4952566150478</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>371.2049692409263</v>
@@ -37716,10 +37716,10 @@
         <v>353.800727293368</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>286.4046682158386</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.9450338850902</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>888.6193594842075</v>
       </c>
       <c r="O41" t="n">
-        <v>750.8547229802288</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887896</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -37956,7 +37956,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>750.8547229802297</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>90.0999299743301</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.79426790133</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
